--- a/F1_SCORES.xlsx
+++ b/F1_SCORES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Model_Name</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>gru_cls_sep</t>
+  </si>
+  <si>
+    <t>Optimizations</t>
+  </si>
+  <si>
+    <t>da: drop_col - dk: None - summarize: False</t>
   </si>
 </sst>
 </file>
@@ -69,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,13 +98,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -395,18 +415,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +439,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -427,8 +453,11 @@
       <c r="C2">
         <v>0.94540000000000002</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -438,8 +467,11 @@
       <c r="C3">
         <v>0.94120000000000004</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -449,8 +481,11 @@
       <c r="C4">
         <v>0.96150000000000002</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -460,27 +495,22 @@
       <c r="C5">
         <v>0.96150000000000002</v>
       </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0.94120000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
         <v>0.871</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/F1_SCORES.xlsx
+++ b/F1_SCORES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>Model_Name</t>
   </si>
@@ -47,6 +47,27 @@
   </si>
   <si>
     <t>da: drop_col - dk: None - summarize: False</t>
+  </si>
+  <si>
+    <t>FP-16</t>
+  </si>
+  <si>
+    <t>FP-32</t>
+  </si>
+  <si>
+    <t>Structured/Amazon-Google</t>
+  </si>
+  <si>
+    <t>da: entry_swap - dk: None - summarize: False</t>
+  </si>
+  <si>
+    <t>wdc_cameras_small</t>
+  </si>
+  <si>
+    <t>wdc_computers_small</t>
+  </si>
+  <si>
+    <t>DISTILBERT</t>
   </si>
 </sst>
 </file>
@@ -67,12 +88,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -113,13 +140,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,10 +461,11 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,77 +479,179 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0.94540000000000002</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.94120000000000004</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.96150000000000002</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.96150000000000002</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.871</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F8:F11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/F1_SCORES.xlsx
+++ b/F1_SCORES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Model_Name</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>ROBERTA</t>
+  </si>
+  <si>
+    <t>wdc_cameras_small</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -156,8 +159,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -495,8 +501,11 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -512,7 +521,8 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
@@ -527,7 +537,8 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -542,7 +553,8 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -557,7 +569,8 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
@@ -575,9 +588,7 @@
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" t="s">
@@ -595,7 +606,7 @@
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -615,12 +626,49 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="F8:F11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/F1_SCORES.xlsx
+++ b/F1_SCORES.xlsx
@@ -28,9 +28,6 @@
     <t>Structured/iTunes-Amazon</t>
   </si>
   <si>
-    <t>sep_cls</t>
-  </si>
-  <si>
     <t>linear</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>wdc_cameras_small</t>
+  </si>
+  <si>
+    <t>cls_sep</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -493,19 +493,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>0.94540000000000002</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -513,13 +513,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>0.94120000000000004</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
@@ -529,13 +529,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>0.96150000000000002</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
@@ -545,13 +545,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <v>0.96150000000000002</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
@@ -561,106 +561,106 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>0.871</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
         <v>0.77600000000000002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
         <v>0.76600000000000001</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="5">
         <v>0.83299999999999996</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5">
         <v>0.81359999999999999</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0.79190000000000005</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7"/>
     </row>

--- a/F1_SCORES.xlsx
+++ b/F1_SCORES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
   <si>
     <t>Model_Name</t>
   </si>
@@ -61,16 +61,22 @@
     <t>wdc_computers_small</t>
   </si>
   <si>
-    <t>DISTILBERT</t>
-  </si>
-  <si>
-    <t>ROBERTA</t>
-  </si>
-  <si>
     <t>wdc_cameras_small</t>
   </si>
   <si>
     <t>cls_sep</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>roberta</t>
+  </si>
+  <si>
+    <t>distilbert</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -156,9 +162,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F8" sqref="F8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,13 +490,19 @@
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
         <v>0.94540000000000002</v>
@@ -501,11 +510,11 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
+      <c r="F2" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,8 +530,12 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
@@ -537,8 +550,12 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -553,8 +570,12 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -569,8 +590,12 @@
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
@@ -588,7 +613,9 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" t="s">
@@ -606,8 +633,8 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -626,11 +653,13 @@
       <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -644,11 +673,13 @@
       <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -662,14 +693,31 @@
       <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="F8:F11"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/F1_SCORES.xlsx
+++ b/F1_SCORES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
   <si>
     <t>Model_Name</t>
   </si>
@@ -25,9 +25,30 @@
     <t>F1_Testset</t>
   </si>
   <si>
+    <t>Optimizations</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
     <t>Structured/iTunes-Amazon</t>
   </si>
   <si>
+    <t>cls_sep</t>
+  </si>
+  <si>
+    <t>da: drop_col - dk: None - summarize: False</t>
+  </si>
+  <si>
+    <t>FP-16</t>
+  </si>
+  <si>
+    <t>roberta</t>
+  </si>
+  <si>
     <t>linear</t>
   </si>
   <si>
@@ -37,46 +58,25 @@
     <t>lstm</t>
   </si>
   <si>
-    <t>gru_cls_sep</t>
-  </si>
-  <si>
-    <t>Optimizations</t>
-  </si>
-  <si>
-    <t>da: drop_col - dk: None - summarize: False</t>
-  </si>
-  <si>
-    <t>FP-16</t>
+    <t>Structured/Amazon-Google</t>
   </si>
   <si>
     <t>FP-32</t>
   </si>
   <si>
-    <t>Structured/Amazon-Google</t>
+    <t>wdc_computers_small</t>
   </si>
   <si>
     <t>da: entry_swap - dk: None - summarize: False</t>
   </si>
   <si>
-    <t>wdc_computers_small</t>
+    <t>distilbert</t>
   </si>
   <si>
     <t>wdc_cameras_small</t>
   </si>
   <si>
-    <t>cls_sep</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
-    <t>roberta</t>
-  </si>
-  <si>
-    <t>distilbert</t>
+    <t>cls_sep_gru</t>
   </si>
 </sst>
 </file>
@@ -97,21 +97,15 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,39 +128,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,19 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F12"/>
+      <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -487,234 +456,274 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0.871</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.871</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
         <v>0.83299999999999996</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
+      <c r="F10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0.79190000000000005</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>0.79459999999999997</v>
       </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="C13">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/F1_SCORES.xlsx
+++ b/F1_SCORES.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
-  <si>
-    <t>Model_Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>Model_Architecture</t>
   </si>
@@ -77,6 +74,12 @@
   </si>
   <si>
     <t>cls_sep_gru</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Run_id</t>
   </si>
 </sst>
 </file>
@@ -431,299 +434,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F14"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="D3">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>0.871</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D12">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>0.871</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="D13">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0.79190000000000005</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>0.79459999999999997</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>0.74680000000000002</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>0.81259999999999999</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
